--- a/sputnik/personal/cel/cel331.xlsx
+++ b/sputnik/personal/cel/cel331.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -162,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -198,6 +198,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -508,7 +509,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -584,9 +585,15 @@
       <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="15"/>
+      <c r="A7" s="17">
+        <v>43952</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1000</v>
+      </c>
       <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/cel/cel331.xlsx
+++ b/sputnik/personal/cel/cel331.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Начислен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -162,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -199,6 +205,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -509,7 +516,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="A8" sqref="A8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,13 +604,27 @@
       <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="15"/>
+      <c r="A8" s="17">
+        <v>44317</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1000</v>
+      </c>
       <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="16"/>
+      <c r="A9" s="18">
+        <v>44317</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="16">
+        <v>2050</v>
+      </c>
       <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/cel/cel331.xlsx
+++ b/sputnik/personal/cel/cel331.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -619,41 +619,83 @@
       <c r="A9" s="18">
         <v>44317</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>2050</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="A10" s="17">
+        <v>44445</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="7">
+        <v>500</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="A11" s="17">
+        <v>44445</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="7">
+        <v>200</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="A12" s="17">
+        <v>44445</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="7">
+        <v>431</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="A13" s="17">
+        <v>44445</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="14">
+        <v>1449</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="17">
+        <v>44445</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15">
+        <v>1000</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="17">
+        <v>44445</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15">
+        <v>1000</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="A16" s="17">
+        <v>44445</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15">
+        <v>2050</v>
+      </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="16"/>
